--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/190.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/190.xlsx
@@ -479,13 +479,13 @@
         <v>-7.629147769333423</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.75320818636937</v>
+        <v>-14.74002423740775</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.022613120846753</v>
+        <v>-0.03364993214232807</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.24791430043416</v>
+        <v>-11.23034443002056</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.623269104786006</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.90189746974285</v>
+        <v>-14.89000965876257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05269380509885534</v>
+        <v>0.0401644712793235</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.94923959570586</v>
+        <v>-10.93284803254802</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.61309481219306</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.26823319555719</v>
+        <v>-15.25523253883536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08598753122536473</v>
+        <v>0.0744663047246458</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.59036648251131</v>
+        <v>-10.57252167373804</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.582230388848044</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.78338912777343</v>
+        <v>-15.76910542537311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2207989735866181</v>
+        <v>0.2075757477164747</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.40719207345272</v>
+        <v>-10.38858791111463</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.51429266097631</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.27243900812326</v>
+        <v>-16.25716029070697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2095003162342085</v>
+        <v>0.196905520900468</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.25190426944701</v>
+        <v>-10.23251456893841</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.388510280546065</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.85338376211918</v>
+        <v>-16.83570915328285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3606640448447777</v>
+        <v>0.3442593893840949</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.10358157055309</v>
+        <v>-10.0843489776786</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.179326091716065</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.44803615719037</v>
+        <v>-17.42831914911073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5033046843053831</v>
+        <v>0.4885889359112831</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.897809846789682</v>
+        <v>-9.87866890003508</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.871701669907712</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.18614091449836</v>
+        <v>-18.16380544585038</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7891489322487885</v>
+        <v>0.7725086153369546</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.935973909573315</v>
+        <v>-9.916492562944827</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.450754225679196</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.67530862557377</v>
+        <v>-18.65146754209899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8223902891639309</v>
+        <v>0.807805463798248</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.58642251600207</v>
+        <v>-9.567739799846928</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.92064288100999</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.28726904500174</v>
+        <v>-19.26155576222058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9478669195990336</v>
+        <v>0.9332951865361924</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.542288363122612</v>
+        <v>-9.522872478008331</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.301088211624125</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.83684464138887</v>
+        <v>-19.81050292807132</v>
       </c>
       <c r="F12" t="n">
-        <v>1.11425699641453</v>
+        <v>1.097786879439639</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.051889975580078</v>
+        <v>-9.032212244408964</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.621527887333616</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.65496955366549</v>
+        <v>-20.62734479466945</v>
       </c>
       <c r="F13" t="n">
-        <v>1.304082295316716</v>
+        <v>1.286394594177545</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.570394353969919</v>
+        <v>-8.54825526986456</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.932870634165541</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.48761382979358</v>
+        <v>-21.4598188708606</v>
       </c>
       <c r="F14" t="n">
-        <v>1.633288250271918</v>
+        <v>1.613597426797962</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.126814041389398</v>
+        <v>-8.101663727630442</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.276897643565059</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.31401307746617</v>
+        <v>-22.28552422648258</v>
       </c>
       <c r="F15" t="n">
-        <v>1.749626453323496</v>
+        <v>1.729123907073353</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.697373415877941</v>
+        <v>-7.669565364642115</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.689717645892522</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.16814182255754</v>
+        <v>-23.14042541744161</v>
       </c>
       <c r="F16" t="n">
-        <v>2.031372810477441</v>
+        <v>2.010058541451111</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.110406202574836</v>
+        <v>-7.084614365976636</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.196367654781559</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.77850498103881</v>
+        <v>-23.75144319106496</v>
       </c>
       <c r="F17" t="n">
-        <v>2.223253600925779</v>
+        <v>2.201598932025564</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.02761047940376</v>
+        <v>-7.000928366212323</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.80171878272491</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.59410307886698</v>
+        <v>-24.56625575072263</v>
       </c>
       <c r="F18" t="n">
-        <v>2.64901528933871</v>
+        <v>2.625030190532668</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.626239751184965</v>
+        <v>-6.599636191810577</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.508841486063404</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.44968506957378</v>
+        <v>-25.42056778805378</v>
       </c>
       <c r="F19" t="n">
-        <v>2.915653129013303</v>
+        <v>2.891301445727693</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.317968388473682</v>
+        <v>-6.292608597869259</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.310394992620259</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.20298999048101</v>
+        <v>-26.17383343205249</v>
       </c>
       <c r="F20" t="n">
-        <v>3.137227262306675</v>
+        <v>3.112954132838115</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.218074117791312</v>
+        <v>-6.189624543716242</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.194857886652809</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.78750894315271</v>
+        <v>-26.75823455399862</v>
       </c>
       <c r="F21" t="n">
-        <v>3.450997392211482</v>
+        <v>3.427666908547526</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.879978489206579</v>
+        <v>-5.853427299043558</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.15482212530944</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.37489511014675</v>
+        <v>-27.34537196723866</v>
       </c>
       <c r="F22" t="n">
-        <v>3.648717349727229</v>
+        <v>3.627429265306583</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.748427030252915</v>
+        <v>-5.71835401062547</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.179040041167213</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.81664250032943</v>
+        <v>-27.78844168000835</v>
       </c>
       <c r="F23" t="n">
-        <v>3.829941005662401</v>
+        <v>3.80899332111564</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.544894090275442</v>
+        <v>-5.515960100995227</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.259027419630281</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.04749907633759</v>
+        <v>-28.01895785614263</v>
       </c>
       <c r="F24" t="n">
-        <v>3.966781754964122</v>
+        <v>3.945624593571893</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.384212257498938</v>
+        <v>-5.354859314527788</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.390601870022748</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.31104713254154</v>
+        <v>-28.28343546584833</v>
       </c>
       <c r="F25" t="n">
-        <v>4.282856130169074</v>
+        <v>4.261489491931377</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.086781321540605</v>
+        <v>-5.058410301282584</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.56763997058929</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.27014677846398</v>
+        <v>-28.24273149631341</v>
       </c>
       <c r="F26" t="n">
-        <v>4.451668283010289</v>
+        <v>4.428285430134967</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.095042564633734</v>
+        <v>-5.065571790937009</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.78662249695956</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.1583254198928</v>
+        <v>-28.13183969124399</v>
       </c>
       <c r="F27" t="n">
-        <v>4.398775379529716</v>
+        <v>4.376832679966983</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.89772846850608</v>
+        <v>-4.871426032097053</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.045232539851773</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.11059088373187</v>
+        <v>-28.08322797079266</v>
       </c>
       <c r="F28" t="n">
-        <v>4.369972313277918</v>
+        <v>4.350098197564178</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.805152795112235</v>
+        <v>-4.780905850249359</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.336065741440863</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.89039144223688</v>
+        <v>-27.86474362096994</v>
       </c>
       <c r="F29" t="n">
-        <v>4.355989733842955</v>
+        <v>4.336691679454251</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.681050856475514</v>
+        <v>-4.657929849657026</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.653635160418871</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.74175452807476</v>
+        <v>-27.7168529680698</v>
       </c>
       <c r="F30" t="n">
-        <v>4.251958295462599</v>
+        <v>4.234388425049003</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.6340756738794</v>
+        <v>-4.611098682392171</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.991048523266011</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.29321223271722</v>
+        <v>-27.26930568772823</v>
       </c>
       <c r="F31" t="n">
-        <v>4.102967889123757</v>
+        <v>4.086366849120449</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.715889474337347</v>
+        <v>-4.695308374270153</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.336686110155542</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.91271063522814</v>
+        <v>-26.88990384367785</v>
       </c>
       <c r="F32" t="n">
-        <v>4.013390353080667</v>
+        <v>3.997731958881963</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.795058629621265</v>
+        <v>-4.774713191005223</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.687228642382331</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.49295831381956</v>
+        <v>-26.47016461457212</v>
       </c>
       <c r="F33" t="n">
-        <v>3.878906218290457</v>
+        <v>3.863588223965638</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.711424999068319</v>
+        <v>-4.696329573891808</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.035066927507105</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.00369895662426</v>
+        <v>-25.98165151863879</v>
       </c>
       <c r="F34" t="n">
-        <v>3.744788667979815</v>
+        <v>3.730648980910751</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.522503069062211</v>
+        <v>-4.509855904517104</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.375950412422782</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.59191984764629</v>
+        <v>-25.57114236303647</v>
       </c>
       <c r="F35" t="n">
-        <v>3.506875340739969</v>
+        <v>3.492369069191337</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.520133362247859</v>
+        <v>-4.509738073791528</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.710019050570211</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.9034218258056</v>
+        <v>-24.88251341816736</v>
       </c>
       <c r="F36" t="n">
-        <v>3.28084982448041</v>
+        <v>3.268700167443289</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.785344140912704</v>
+        <v>-4.776087882803603</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.02952147752683</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.42028966634022</v>
+        <v>-24.40055956595774</v>
       </c>
       <c r="F37" t="n">
-        <v>3.152623810448545</v>
+        <v>3.139898092086387</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.771767422865834</v>
+        <v>-4.764553564000042</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.336074776660215</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.00151926764477</v>
+        <v>-23.98279727458111</v>
       </c>
       <c r="F38" t="n">
-        <v>3.078364268730275</v>
+        <v>3.066005134847686</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.919082014440936</v>
+        <v>-4.910964786679066</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.62536991812938</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.49983531505267</v>
+        <v>-23.4816762910112</v>
       </c>
       <c r="F39" t="n">
-        <v>3.051184648030852</v>
+        <v>3.038563668091428</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.784702618073459</v>
+        <v>-4.778104097441229</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.893175161978928</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.11463358084341</v>
+        <v>-23.09706371042981</v>
       </c>
       <c r="F40" t="n">
-        <v>3.150267195937035</v>
+        <v>3.135001570823582</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.764893963873928</v>
+        <v>-4.759945073399756</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.140424277115246</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.58291588553239</v>
+        <v>-22.56569950729552</v>
       </c>
       <c r="F41" t="n">
-        <v>3.161317099535451</v>
+        <v>3.14772728918574</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.6926244521876</v>
+        <v>-4.687754115530478</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.362199358495915</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.9016971840717</v>
+        <v>-21.88590786684458</v>
       </c>
       <c r="F42" t="n">
-        <v>3.253827311415088</v>
+        <v>3.240970670024513</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.721479887650764</v>
+        <v>-4.716203689605549</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.561161015791431</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.23766867624219</v>
+        <v>-21.22215429737475</v>
       </c>
       <c r="F43" t="n">
-        <v>3.372731605823644</v>
+        <v>3.359691672193285</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.76916205460033</v>
+        <v>-4.762681364693676</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.737759091550434</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.94536992299782</v>
+        <v>-20.93073272842076</v>
       </c>
       <c r="F44" t="n">
-        <v>3.275874749400554</v>
+        <v>3.263882199997533</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.817839236565868</v>
+        <v>-4.812144084829717</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.89189459398037</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.45502390466665</v>
+        <v>-20.44155192504251</v>
       </c>
       <c r="F45" t="n">
-        <v>3.406981070057599</v>
+        <v>3.393784028793139</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.76278610311641</v>
+        <v>-4.757955043367813</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.029623333710443</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.1292874099645</v>
+        <v>-20.11522627671249</v>
       </c>
       <c r="F46" t="n">
-        <v>3.434003583122922</v>
+        <v>3.421120757126663</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.727358331626699</v>
+        <v>-4.725656332257275</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.150421945362192</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.58066755168482</v>
+        <v>-19.5681120332596</v>
       </c>
       <c r="F47" t="n">
-        <v>3.439685642556231</v>
+        <v>3.427405062490692</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.994048540512659</v>
+        <v>-4.993354648462048</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.258142119585772</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.10406845133746</v>
+        <v>-19.09197116351171</v>
       </c>
       <c r="F48" t="n">
-        <v>3.366185454402781</v>
+        <v>3.354795150930479</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.108449082743661</v>
+        <v>-5.108017036749884</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.35520247574563</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.72427383820183</v>
+        <v>-18.71014724343561</v>
       </c>
       <c r="F49" t="n">
-        <v>3.38438375535278</v>
+        <v>3.373229113331629</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.399844467091959</v>
+        <v>-5.398548329110628</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.439520409000087</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.20740281431333</v>
+        <v>-18.19394392699203</v>
       </c>
       <c r="F50" t="n">
-        <v>3.533347977085939</v>
+        <v>3.520020012793062</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.300696457671567</v>
+        <v>-5.303668410416639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.51692808602189</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.54476209058505</v>
+        <v>-17.53067477272735</v>
       </c>
       <c r="F51" t="n">
-        <v>3.553876707941766</v>
+        <v>3.539579913238601</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.513210717398465</v>
+        <v>-5.516274316263429</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.584689479527357</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.15112891334571</v>
+        <v>-17.13744745687611</v>
       </c>
       <c r="F52" t="n">
-        <v>3.378230373017169</v>
+        <v>3.36519043938681</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.817606758468596</v>
+        <v>-5.817083066354926</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.644424777673064</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.76404188752723</v>
+        <v>-16.7495356159786</v>
       </c>
       <c r="F53" t="n">
-        <v>3.409861376682779</v>
+        <v>3.397685535039974</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845257702070321</v>
+        <v>-5.845427902007263</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.697444465005099</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.57412494250516</v>
+        <v>-16.55769410243879</v>
       </c>
       <c r="F54" t="n">
-        <v>3.142883137134301</v>
+        <v>3.131230987605165</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.017081084565134</v>
+        <v>-6.018652160906141</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.741334329020475</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.28807121771629</v>
+        <v>-16.270475162697</v>
       </c>
       <c r="F55" t="n">
-        <v>2.996799222026322</v>
+        <v>2.9848066726233</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.153293403330452</v>
+        <v>-6.156618848252251</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.781117262796901</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.96568635254162</v>
+        <v>-15.94620500591313</v>
       </c>
       <c r="F56" t="n">
-        <v>2.943199334192295</v>
+        <v>2.93118060018359</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.473635869261805</v>
+        <v>-6.474185745981158</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.814867423289504</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.41845427836316</v>
+        <v>-15.39913003936877</v>
       </c>
       <c r="F57" t="n">
-        <v>2.986979994895027</v>
+        <v>2.972997415460064</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.73027118956532</v>
+        <v>-6.731056727735823</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.845891416499841</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.22076050545309</v>
+        <v>-15.20027105150579</v>
       </c>
       <c r="F58" t="n">
-        <v>2.830605529753451</v>
+        <v>2.816099258204818</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.707844074797443</v>
+        <v>-6.708158290065644</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.879813934030311</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.87912995510109</v>
+        <v>-14.85785496298329</v>
       </c>
       <c r="F59" t="n">
-        <v>2.96341384977992</v>
+        <v>2.947074655833446</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.815410434945065</v>
+        <v>-6.816392357658194</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.917637809004203</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.82876386606897</v>
+        <v>-14.8060879975471</v>
       </c>
       <c r="F60" t="n">
-        <v>2.782294932267482</v>
+        <v>2.765981922926691</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82386806258082</v>
+        <v>-6.823802601066611</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.966618976273216</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.4831270710474</v>
+        <v>-14.46084397161079</v>
       </c>
       <c r="F61" t="n">
-        <v>2.669020328080868</v>
+        <v>2.652497841894609</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.238357278247025</v>
+        <v>-7.236393432820766</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.029888671908083</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.28534165201745</v>
+        <v>-14.260728122675</v>
       </c>
       <c r="F62" t="n">
-        <v>2.625841913308855</v>
+        <v>2.60850770434641</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.175344024669798</v>
+        <v>-7.17573679375505</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.108215986179323</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.96717250835782</v>
+        <v>-13.94234950216991</v>
       </c>
       <c r="F63" t="n">
-        <v>2.553048709508858</v>
+        <v>2.535819238969147</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.384009147361228</v>
+        <v>-7.382411886414537</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.209343588929144</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.7850847604351</v>
+        <v>-13.75887397014596</v>
       </c>
       <c r="F64" t="n">
-        <v>2.467137018261452</v>
+        <v>2.449252932579654</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.384991070074357</v>
+        <v>-7.387530976825652</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.330937208541005</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.59753752222737</v>
+        <v>-13.57077685521888</v>
       </c>
       <c r="F65" t="n">
-        <v>2.209061544645347</v>
+        <v>2.195236072844485</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742882260555781</v>
+        <v>-7.742607322196105</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.4753433624841</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.38394969366745</v>
+        <v>-13.35667842684813</v>
       </c>
       <c r="F66" t="n">
-        <v>2.14278830766053</v>
+        <v>2.1289104666483</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.779619262329664</v>
+        <v>-7.781242707882038</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.642971114732589</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.21524227924897</v>
+        <v>-13.18770916637282</v>
       </c>
       <c r="F67" t="n">
-        <v>2.439198043997208</v>
+        <v>2.419769066580087</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.868450537110776</v>
+        <v>-7.867259137552178</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.827492907749797</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.16927520397167</v>
+        <v>-13.14073398377671</v>
       </c>
       <c r="F68" t="n">
-        <v>2.134278310813408</v>
+        <v>2.118619916614704</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.757794393492507</v>
+        <v>-7.759391654439198</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.031279047274493</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.02978980949592</v>
+        <v>-13.00103911245549</v>
       </c>
       <c r="F69" t="n">
-        <v>2.209323390702182</v>
+        <v>2.189449274988442</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.830076997481677</v>
+        <v>-7.831700443034051</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.245873723408948</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.01445872286826</v>
+        <v>-12.98378345731009</v>
       </c>
       <c r="F70" t="n">
-        <v>2.203327116000672</v>
+        <v>2.184631307542686</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.735943340049666</v>
+        <v>-7.738365416075386</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.467018783422239</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.70489122217564</v>
+        <v>-12.67517169472493</v>
       </c>
       <c r="F71" t="n">
-        <v>2.16038436267981</v>
+        <v>2.141295785136573</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.430709391597665</v>
+        <v>-7.436758035510542</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.691072405679847</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.63586860159406</v>
+        <v>-12.60643710480586</v>
       </c>
       <c r="F72" t="n">
-        <v>2.165071407097148</v>
+        <v>2.147030213781249</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.501486380760036</v>
+        <v>-7.506016317543273</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.907009049614489</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.29278480562663</v>
+        <v>-12.27047552158433</v>
       </c>
       <c r="F73" t="n">
-        <v>2.141426708164991</v>
+        <v>2.123333145637725</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.221193269221522</v>
+        <v>-7.229402143103284</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.11048200238542</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.49524417677108</v>
+        <v>-12.47277778509468</v>
       </c>
       <c r="F74" t="n">
-        <v>2.163081377065205</v>
+        <v>2.145537691257292</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.176456870411345</v>
+        <v>-7.183107760254941</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.29074061737886</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.62843217357996</v>
+        <v>-12.60586104348083</v>
       </c>
       <c r="F75" t="n">
-        <v>2.09507995610528</v>
+        <v>2.077536270297367</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.109947971975376</v>
+        <v>-7.115158708506383</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.43773887019413</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.87956872668995</v>
+        <v>-12.85894834971423</v>
       </c>
       <c r="F76" t="n">
-        <v>2.071121041904922</v>
+        <v>2.054703294141397</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.748875351903413</v>
+        <v>-6.75780430244147</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.5464772354552</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.45166308396486</v>
+        <v>-13.43194607588522</v>
       </c>
       <c r="F77" t="n">
-        <v>2.065831751556864</v>
+        <v>2.048942680891038</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.702764261294853</v>
+        <v>-6.708878366721939</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.60486014187352</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.94029401062376</v>
+        <v>-13.92150655604588</v>
       </c>
       <c r="F78" t="n">
-        <v>2.118488993586286</v>
+        <v>2.101050046201107</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.73285037322514</v>
+        <v>-6.735220080039492</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.60900329373294</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.42817867602068</v>
+        <v>-14.40956142137975</v>
       </c>
       <c r="F79" t="n">
-        <v>2.162112546654918</v>
+        <v>2.145040183749307</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.643744160084353</v>
+        <v>-6.64417620607813</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.55236644358057</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.9756464116503</v>
+        <v>-14.95726481846051</v>
       </c>
       <c r="F80" t="n">
-        <v>2.042239421836074</v>
+        <v>2.027549858047657</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.284020047205087</v>
+        <v>-6.28654686165354</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.43066155256072</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.74656047987965</v>
+        <v>-15.72849310195807</v>
       </c>
       <c r="F81" t="n">
-        <v>2.144333199395854</v>
+        <v>2.128779543619883</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.231258066752931</v>
+        <v>-6.232370912494478</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.24806208809336</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.4732618414125</v>
+        <v>-16.45580980172448</v>
       </c>
       <c r="F82" t="n">
-        <v>2.109952812133481</v>
+        <v>2.095917863487151</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.129138104587468</v>
+        <v>-6.130617534808582</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.00221824645458</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.35059014713941</v>
+        <v>-17.33294172290876</v>
       </c>
       <c r="F83" t="n">
-        <v>2.093351772130172</v>
+        <v>2.078688392947439</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.830528861373379</v>
+        <v>-5.83288547588489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.703598083677512</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.40275306501472</v>
+        <v>-18.38551050217217</v>
       </c>
       <c r="F84" t="n">
-        <v>2.09879817011233</v>
+        <v>2.085941528721755</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.726536699901549</v>
+        <v>-5.727008022803851</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.359585895901397</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.20075510782361</v>
+        <v>-19.1838398525521</v>
       </c>
       <c r="F85" t="n">
-        <v>2.128543882168732</v>
+        <v>2.114823148790603</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.595770779118389</v>
+        <v>-5.594513918045584</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.980571888015653</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.35497252635018</v>
+        <v>-20.33656474855471</v>
       </c>
       <c r="F86" t="n">
-        <v>2.115503948538373</v>
+        <v>2.101966507400028</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253616536652721</v>
+        <v>-5.253367782898727</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.584432218483105</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.42156316195708</v>
+        <v>-21.40298518422467</v>
       </c>
       <c r="F87" t="n">
-        <v>1.919355067363633</v>
+        <v>1.910740332093777</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.884099381247844</v>
+        <v>-4.886050134371261</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.181722574102707</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.76158654241342</v>
+        <v>-22.743506072189</v>
       </c>
       <c r="F88" t="n">
-        <v>2.017652077099312</v>
+        <v>2.007989957602118</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662067017355011</v>
+        <v>-4.662027740446486</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.792917351099136</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.13385626476894</v>
+        <v>-24.11790983990772</v>
       </c>
       <c r="F89" t="n">
-        <v>1.891285170070972</v>
+        <v>1.87981631278162</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.272924499990387</v>
+        <v>-4.273984976520567</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.435585170072254</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.60099281351561</v>
+        <v>-25.58553080385953</v>
       </c>
       <c r="F90" t="n">
-        <v>1.670444205736737</v>
+        <v>1.660624978605442</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.167269616057657</v>
+        <v>-4.166366247161579</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.122468060824316</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.24329128198172</v>
+        <v>-27.22809111838248</v>
       </c>
       <c r="F91" t="n">
-        <v>1.461543421594156</v>
+        <v>1.452719209478832</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.059677071304353</v>
+        <v>-4.060318594143598</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.870741576754583</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.82617688015209</v>
+        <v>-28.81363445402971</v>
       </c>
       <c r="F92" t="n">
-        <v>1.334914668508981</v>
+        <v>1.327006917592579</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.787435726013501</v>
+        <v>-3.788666402480624</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.687509714268489</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6706335967973</v>
+        <v>-30.65917783181079</v>
       </c>
       <c r="F93" t="n">
-        <v>1.194512812834311</v>
+        <v>1.18699783100316</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.772994915979077</v>
+        <v>-3.775482453519005</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.57697041245344</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.74165261411858</v>
+        <v>-32.73178101777592</v>
       </c>
       <c r="F94" t="n">
-        <v>1.078515009656618</v>
+        <v>1.071562996847661</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.762573442917063</v>
+        <v>-3.766147641592855</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.543181196990988</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.76607612562616</v>
+        <v>-34.75772323641313</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6750102360746205</v>
+        <v>0.6678880233287215</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.745972402913755</v>
+        <v>-3.750004832189006</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.581670856444887</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.73158427434596</v>
+        <v>-36.7244096923887</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4572983321195578</v>
+        <v>0.4487621506667523</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.962977322515364</v>
+        <v>-3.966093290591695</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.686435792279764</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.81530282542372</v>
+        <v>-38.80928036611652</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06964833727889061</v>
+        <v>0.06247375532162472</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.950330157970257</v>
+        <v>-3.955671817529681</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.86200366936582</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.02498242214172</v>
+        <v>-41.02198428479097</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1342773717838346</v>
+        <v>-0.1427873686309566</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.149817576369637</v>
+        <v>-4.155316343563162</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.087506362276843</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39917989636885</v>
+        <v>-43.39730769706248</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.05550098558516888</v>
+        <v>-0.06390624400955702</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.479743607981134</v>
+        <v>-4.48501980602635</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.383948548046688</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79589613148375</v>
+        <v>-45.7959746853008</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3374044503732146</v>
+        <v>-0.3427330176297971</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.656528973252961</v>
+        <v>-4.663310786124975</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.706990517797079</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19407870451692</v>
+        <v>-48.19427508905954</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2638518930083975</v>
+        <v>-0.2714192440509152</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.925196119868022</v>
+        <v>-4.93398105507482</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.112432217941798</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40214794798539</v>
+        <v>-50.40421653183439</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4129208531642906</v>
+        <v>-0.419925235184614</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.287708893252574</v>
+        <v>-5.295524998049085</v>
       </c>
     </row>
   </sheetData>
